--- a/continuous_indicators_summary.xlsx
+++ b/continuous_indicators_summary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/krystel_moussally_msf_org/Documents/OneDrive Updated/7_MENA branch/MEMU/WHO_EWI/AMR_ProxyInd/Analysis/R-project/scoping_amr_indicators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_63B7737DC73BD2A59EA55252F37BD2727AC3A498" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B68C29-4AA4-443A-99F6-260745ACB33B}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_63B7737DC73BD2A59EA55252F37BD2727AC3A498" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F0D2D7-E834-4892-897F-B7FE1FE11E2E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_cont_indicators" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summary_cont_indicators!$A$1:$E$96</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -772,6 +775,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,10 +1068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>49</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
@@ -1553,7 +1561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
@@ -1570,7 +1578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
@@ -1604,7 +1612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>49</v>
       </c>
@@ -1638,7 +1646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>77</v>
       </c>
@@ -1706,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>77</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>77</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="8" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>82</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>87</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="8" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>91</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="8" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>91</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>91</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>91</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="8" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>91</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="8" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>91</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>91</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>91</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>91</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>91</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>91</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>91</v>
       </c>
@@ -2029,7 +2037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>91</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>91</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>91</v>
       </c>
@@ -2097,7 +2105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>91</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>91</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" s="6" customFormat="1" ht="403" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>128</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>128</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>128</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="8" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" s="8" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>135</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="8" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>135</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>140</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>140</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>140</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>140</v>
       </c>
@@ -2284,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>140</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>140</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>140</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>140</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>140</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>140</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>140</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>140</v>
       </c>
@@ -2420,7 +2428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="8" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" s="8" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>164</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>164</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>164</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>171</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>171</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>171</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>171</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>171</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>171</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="8" customFormat="1" ht="208" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" s="8" customFormat="1" ht="195" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>184</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="8" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>184</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>184</v>
       </c>
@@ -5306,6 +5314,13 @@
       <c r="C745" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E96" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Patient outcomes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/continuous_indicators_summary.xlsx
+++ b/continuous_indicators_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,16 +392,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure-duration, non specific</t>
+          <t>Prior antibiotic exposure, non specific</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Duration of previous antibiotic therapy (days), Duration of previous antibiotic use (days), Length of use (days), Mean days of antibiotics in the previous 1 year, Mean days of antibiotics in the previous 2 years, Mean days of antibiotics in the previous 30 days, Patients with previous antibiotic treatment - Days on antimicrobial treatment, Previous antibiotic duration (days), Prior no. of days of antibiotic therapy, Quantitative indices of antibiotic usage - Antibiotic-days/patient</t>
+          <t>All patients - Different antimicrobial families, All patients - Types of antimicrobials, Antibiotic courses in past 90 days, Drug use in the 30 days prior to BSI-Types of antibiotics, Duration of previous antibiotic therapy (days), Duration of previous antibiotic use (days), Length of use (days), Mean days of antibiotics in the previous 1 year, Mean days of antibiotics in the previous 2 years, Mean days of antibiotics in the previous 30 days, Mean DDDs per patient for antibiotic classes - All classes of antibiotics, Median (range) no. of prior antibiotics (n=38), Patients with previous antibiotic treatment - Antimicrobial families, Patients with previous antibiotic treatment - Days on antimicrobial treatment, Patients with previous antibiotic treatment - Different antimicrobial families, Patients with previous antibiotic treatment - Types of antimicrobials, Previous antibiotic duration (days), Prior no. of days of antibiotic therapy, Quantitative indices of antibiotic usage - Antibiotic-days/patient, Quantitative indices of antibiotic usage - number of different antibiotics used/patient, Use of antibiotics within 14 days prior to BSI - Number of antibiotics</t>
         </is>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>45</v>
@@ -415,16 +415,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure-type, non specific</t>
+          <t>Prior antibiotic exposure, specific choice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All patients - Types of antimicrobials, Antibiotic courses in past 90 days, Drug use in the 30 days prior to BSI-Types of antibiotics, Median (range) no. of prior antibiotics (n=38), Patients with previous antibiotic treatment - Antimicrobial families, Patients with previous antibiotic treatment - Different antimicrobial families, Patients with previous antibiotic treatment - Types of antimicrobials, Quantitative indices of antibiotic usage - number of different antibiotics used/patient, Use of antibiotics within 14 days prior to BSI - Number of antibiotics</t>
+          <t>Duration of exposure to antimicrobial agent, days - Carbapenems, Duration of exposure to antimicrobial agent, days - Colistin, Duration of exposure to antimicrobial agent, days - Linezolid, Duration of previous linezolid therapy (days), Mean carbapenem-days in the previous 1 year, Mean carbapenem-days in the previous 2 years, Mean carbapenem-days in the previous 30 days, Mean DDDs per patient for antibiotic classes - b- lactam antibiotics, Mean DDDs per patient for antibiotic classes - Fixed b-lactam/b-lactamase inhibitor combinations, Mean DDDs per patient for antibiotic classes - Fluoroquinolones, Mean DDDs per patient for antibiotic classes - penicillins</t>
         </is>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>45</v>
@@ -438,7 +438,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In-hospital antibiotic exposure-duration, non specific</t>
+          <t>In-hospital antibiotic exposure, non specific</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -461,16 +461,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure-duration, specific choice</t>
+          <t>In-hospital antibiotic exposure, specific</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Duration of exposure to antimicrobial agent, days - Carbapenems, Duration of exposure to antimicrobial agent, days - Colistin, Duration of exposure to antimicrobial agent, days - Linezolid, Duration of previous linezolid therapy (days), Mean carbapenem-days in the previous 1 year, Mean carbapenem-days in the previous 2 years, Mean carbapenem-days in the previous 30 days</t>
+          <t>Fluoroquinolone therapy (days), Meropenem (days), Monotherapy - daptomycin dose (mg/kg), Piperacillin-tazobactam (days), Vancomycin (days)</t>
         </is>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>45</v>
@@ -484,16 +484,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure-DDD, specific choice</t>
+          <t>Antibiotic exposure, unspecified</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mean DDDs per patient for antibiotic classes - b- lactam antibiotics, Mean DDDs per patient for antibiotic classes - Fixed b-lactam/b-lactamase inhibitor combinations, Mean DDDs per patient for antibiotic classes - Fluoroquinolones, Mean DDDs per patient for antibiotic classes - penicillins</t>
+          <t>Number of antibiotic agent</t>
         </is>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>45</v>
@@ -502,2048 +502,1220 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Biomedical results</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>In-hospital antibiotic exposure-duration, specific choice</t>
+          <t>Hematology makers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fluoroquinolone therapy (days), Meropenem (days), Vancomycin (days)</t>
+          <t>Before BSI (within 2 days)-Hemoglobin, Before BSI (within 2 days)-International normalized ratio, Before BSI (within 2 days)-Neutrophil proportion, Before BSI (within 2 days)-Platelet, Blood counts, 109/L - absolute monocyte count (AMC), Blood counts, 109/L - platelets, days of neutropenia, Duration of neutropenia, Duration of neutropenia, Days, Haematocrit (%), Hb (g/L), Hemoglobin, Initial WBC count x10^3/uL, Laboratory examination - Serum total protein, Laboratory examination - Serum total protein, g/L, Laboratory examination - White blood cell, Laboratory examinations - Hemoglobin (g/L), Laboratory findings - White blood cell (WBC), Laboratory Values - WBC (Ã—10 exp 3/ÂµL) - at admission, Leukocytes (cells/mm3), Neutropenia days, Neutrophils (cells/mm3), Peak WBC count x10^3/mL, Peak white blood cell count (WBC) 10Â³, cells/ÂµL, Platelet (âˆ—10â¹/L), Platelets (x109/L), Total neutrophil count, x10 exp 3/mL</t>
         </is>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Biomedical results</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>In-hospital antibiotic exposure-dose, specific choice</t>
+          <t>Liver markers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monotherapy - daptomycin dose (mg/kg)</t>
+          <t>Albumin, Albuminemia (g/L), Before BSI (within 2 days)-Cholinesterase, Before BSI (within 2 days)-Serum total bilirubin, Liver and kidney function - albumin (g/L), Liver and kidney function - bilirubin conjugate (Bc) (Î¼mol/L), Liver and kidney function - bilirubin unconjugated (Bu) (Î¼mol/L), Liver and kidney function - Fibrinogen (g/L), Liver and kidney function - lactate dehydrogenase (LDH) (U/L), Liver and kidney function - total bilirubin (TBIL) (Î¼mol/L), Liver and kidney function - total protein (TP) (g/L), Serum albumin (g/dL)</t>
         </is>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Biomedical results</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure- type, non specific</t>
+          <t>Kidney markers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>All patients - Different antimicrobial families</t>
+          <t>Creatinine (mg/dL), Creatinine level (Î¼mol/L), Laboratory findings - Creatinine, mg/dL, Liver and kidney function - blood urea nitrogen (BUN)(mmol/L), Liver and kidney function - creatine kinase isoenzymes (CKMB) (U/L), Liver and kidney function - creatinine (Cr) (umol/L), Liver and kidney function - uric acid (UA) (mmol/L)</t>
         </is>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Biomedical results</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prior antibiotic exposure-DDD, non specific</t>
+          <t>Inflammation markers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mean DDDs per patient for antibiotic classes - All classes of antibiotics</t>
+          <t>C-reactive protein (CRP) (mg/dl), Laboratory values - Inflammatory response - Tumor Necrosis Factor-alpha (TNF-a) - (pg/mL) - at admission, Predisposing factors - CD4 count, cells/ml, procalciton (PCT) level on day 3 (ng/mL), Time to 50% decline in CRP, days, tumour necrosis factor (TNF-a)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Biomedical results</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>antibiotic exposure-duration, specific choice</t>
+          <t>Metabolic markers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Piperacillin-tazobactam (days)</t>
+          <t>HCO3, Lactate (mmol/L), Na (sodium)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Antibiotic exposure</t>
+          <t>Clinical presentation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>antibiotic exposure-type, non specific</t>
+          <t>Clinical severity score</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Number of antibiotic agent</t>
+          <t>Abbreviated Burn Severity Index (ABSI)-score, Acute Physiology and Chronic Health Evaluation II score, APACHE-II score, APACHE-II score in 24 hours after bacteraemia, APACHE II on admission, APACHE II score, APACHE II Score, APACHE II score - at the day of positive cultures, APACHE II score (Acute Physiologic And Chronic Health Evaluation) - Delta APACHE II score, APACHE II score (Acute Physiologic And Chronic Health Evaluation) - On admission, APACHE score, Assessment models - PSI (pneumonia severity index), Background parameters - McCabe score at admission, Baseline APACHE II score, Chronic Liver Failure-Consortium Acute-on-Chronic Liver Failure (CLIF-C ACLF), Clinical characteristic - Pitt bacteremia score (collected before the day of the first positive blood culture), clinical risk index for babies scoring system (CRIB II) - during admission, Clinical Scoring Systems - SOFA, Clinical Severity - APACHE II score - at time pf positive blood culture, Clinical severity - Pitt score, Clinical Severity - SOFA score - at time pf positive blood culture, Disseminated intravascular coagulation (DIC) score, Infectious status - Pitt score, Mean APACHE II score, Model for end-stage liver diseases (MELD) at onset of BSI, Model of End-Stage Liver Disease-Na, Organ failure at admission, PBS (Pitt bacteremia score), Percent of TBSA (Total Body Surface Area), Pitt bacteremia score, Pitt score, Pitt score total, Pitt score within 48h from the day of BSI onset, Pittsburg score, Pittsburgh bacteremia score, Presentation of BSI - Pitt bacteraemia score, SAPS (simplified acute physiology score) II, SAPS (simplified acute physiology score) II score, Sequential Organ Failure (SOFA) score, Severity grade, Severity of illness at the time of BSI - APACHE II score, Severity of illness at the time of BSI - Pitt score, Severity of illness at time of BSI - APACHEII score, Severity of illness at time of BSI - Pitt score, Sofa score, SOFA score, SOFA score - before PS</t>
         </is>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Clinical presentation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hematology makers, value</t>
+          <t>Clinical severity, infection site</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Before BSI (within 2 days)-Hemoglobin, Before BSI (within 2 days)-International normalized ratio, Before BSI (within 2 days)-Neutrophil proportion, Before BSI (within 2 days)-Platelet, Blood counts, 109/L - absolute monocyte count (AMC), Blood counts, 109/L - platelets, Haematocrit (%), Hb (g/L), Hemoglobin, Initial WBC count x10^3/uL, Laboratory examination - Serum total protein, Laboratory examination - Serum total protein, g/L, Laboratory examination - White blood cell, Laboratory examinations - Hemoglobin (g/L), Laboratory findings - White blood cell (WBC), Laboratory Values - WBC (Ã—10 exp 3/ÂµL) - at admission, Leukocytes (cells/mm3), Neutrophils (cells/mm3), Peak WBC count x10^3/mL, Peak white blood cell count (WBC) 10Â³, cells/ÂµL, Platelet (âˆ—10â¹/L), Platelets (x109/L), Total neutrophil count, x10 exp 3/mL</t>
+          <t>Duration of Symptoms on Presentation, days, Peak temperature on d3 after antimicrobial treatment (Â°C), Temperature (Â°C), Vital sign on admission - body temperature</t>
         </is>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Clinical presentation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liver markers, value</t>
+          <t>Clinical presentation, other than infection site</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Albumin, Albuminemia (g/L), Before BSI (within 2 days)-Cholinesterase, Before BSI (within 2 days)-Serum total bilirubin, Liver and kidney function - albumin (g/L), Liver and kidney function - bilirubin conjugate (Bc) (Î¼mol/L), Liver and kidney function - bilirubin unconjugated (Bu) (Î¼mol/L), Liver and kidney function - Fibrinogen (g/L), Liver and kidney function - lactate dehydrogenase (LDH) (U/L), Liver and kidney function - total bilirubin (TBIL) (Î¼mol/L), Liver and kidney function - total protein (TP) (g/L), Serum albumin (g/dL)</t>
+          <t>diastolic blood pressure (DBP) (mmHg), Initial (ECOG) Eastern Cooperative Oncology Group performance scale, systolic blood pressure (SBP) (mmHg)</t>
         </is>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Comorbidities</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kidney markers, value</t>
+          <t>Comorbidity score</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Creatinine (mg/dL), Creatinine level (Î¼mol/L), Laboratory findings - Creatinine, mg/dL, Liver and kidney function - blood urea nitrogen (BUN)(mmol/L), Liver and kidney function - creatine kinase isoenzymes (CKMB) (U/L), Liver and kidney function - creatinine (Cr) (umol/L), Liver and kidney function - uric acid (UA) (mmol/L)</t>
+          <t>Baseline CCI (Charlson Comorbidity Index) Score - Mean (SD), Baseline CCI (Charlson Comorbidity Index) Score - Median (Q1-Q3), Charlson comorbidity index, Charlson Comorbidity Index (CCI) Score, Charlson comorbidity index at time of admission, Charlson comorbidity score, Charlson Cormorbidity Index, Charlson index (at admission), Charlson score, Comorbidities - charlson comorbidity score, Weighted Charlson Score</t>
         </is>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Comorbidities</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hematology makers, duration</t>
+          <t>Comorbidities, nb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>days of neutropenia, Duration of neutropenia, Duration of neutropenia, Days, Neutropenia days</t>
+          <t>Background parameters - Overall no. of comorbidities</t>
         </is>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Comorbidities</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Inflammation markers, value</t>
+          <t>Underweight/malnutrition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C-reactive protein (CRP) (mg/dl), Laboratory values - Inflammatory response - Tumor Necrosis Factor-alpha (TNF-a) - (pg/mL) - at admission, Predisposing factors - CD4 count, cells/ml, procalciton (PCT) level on day 3 (ng/mL), tumour necrosis factor (TNF-a)</t>
+          <t>weight-for-age z-score</t>
         </is>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Metabolic markers, value</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HCO3, Lactate (mmol/L), Na (sodium)</t>
+          <t>Age, Age (months), Age (years), Age (yr), Age (yrs), Age at onset of LOS (days), Age, years, Demographic and medical comorbidity - Age, years, Demographics - Age, years</t>
         </is>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomedical results</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CRP-decline-half, time-to</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Time to 50% decline in CRP, days</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clinical presentation</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOG functional-score</t>
+          <t>Cost, overall</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Initial (ECOG) Eastern Cooperative Oncology Group performance scale</t>
+          <t>Direct cost (USD), Direct cost per case (Canadian dollars), Direct cost per case (Canadian dollars) - Site 1, Economic burden ($) - total cost, Healthcare costs (10,000 CNY), Hospitalization-associated Costs - total cost (Euro), Overall cost (IND/USD), Propensity scoreâ€“ adjusted total costs - septicemia - hospitalizations with no in-hospital mortality (those with LOS &lt; 10 days) (one year 2014), Total cost (USD), Total costs (AU dollar), Total direct economic burden, Total direct medical expenses while in hospital, $US, Total hospitalisation cost, SGD</t>
         </is>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Clinical presentation</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Infection symptoms, duration</t>
+          <t>Cost, antimicrobials</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Duration of Symptoms on Presentation, days</t>
+          <t>Antibiotic cost (IND/USD), Antibiotics cost USD, Direct Economic Cost-Antimicrobial, Direct Economic Cost-Proportion of antimicrobials (%), Hospitalization-associated Costs - Antibiotic cost (Euro), Total antibiotic costs while in hospital, $US</t>
         </is>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Clinical presentation</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>Cost, hospitalization</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vital sign on admission - body temperature</t>
+          <t>Hospitalisation cost, JPY, Hospitalisation cost, USD, Inpatient cost, USD</t>
         </is>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apache-II</t>
+          <t>Cost, medical</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Acute Physiology and Chronic Health Evaluation II score, APACHE-II score, APACHE-II score in 24 hours after bacteraemia, APACHE II on admission, APACHE II score, APACHE II Score, APACHE II score - at the day of positive cultures, APACHE II score (Acute Physiologic And Chronic Health Evaluation) - Delta APACHE II score, APACHE II score (Acute Physiologic And Chronic Health Evaluation) - On admission, APACHE score, Baseline APACHE II score, Clinical Severity - APACHE II score - at time pf positive blood culture, Mean APACHE II score, Severity of illness at the time of BSI - APACHE II score, Severity of illness at time of BSI - APACHEII score</t>
+          <t>Economic burden ($) - medical expenses, Medical expenses, Renminbi (RMB)</t>
         </is>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pitt bacteremia</t>
+          <t>Cost, medication</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Clinical characteristic - Pitt bacteremia score (collected before the day of the first positive blood culture), Clinical severity - Pitt score, Infectious status - Pitt score, PBS (Pitt bacteremia score), Pitt bacteremia score, Pitt score, Pitt score total, Pitt score within 48h from the day of BSI onset, Pittsburg score, Pittsburgh bacteremia score, Presentation of BSI - Pitt bacteraemia score, Severity of illness at the time of BSI - Pitt score, Severity of illness at time of BSI - Pitt score</t>
+          <t>Direct Economic Cost-Medicine, Total direct medical expenses while in hospital, $US - Medicine, Total pharmacy cost (IND/USD)</t>
         </is>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SOFA</t>
+          <t>Cost, diagnosis/labs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clinical Scoring Systems - SOFA, Clinical Severity - SOFA score - at time pf positive blood culture, Organ failure at admission, Sequential Organ Failure (SOFA) score, Sofa score, SOFA score, SOFA score - before PS</t>
+          <t>Direct Economic Cost-Diagnosis and laboratory tests, Total direct medical expenses while in hospital, $US - Laboratory and imaging examinations</t>
         </is>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAPS</t>
+          <t>Cost, loss of productivity</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SAPS (simplified acute physiology score) II, SAPS (simplified acute physiology score) II score</t>
+          <t>Economic burden ($) - loss of productivity</t>
         </is>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Burn severity (ABSI)</t>
+          <t>Cost, blood transfusion</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Abbreviated Burn Severity Index (ABSI)-score</t>
+          <t>Total direct medical expenses while in hospital, $US - Blood transfusion</t>
         </is>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLIF-C ACLF</t>
+          <t>Cost, consumables</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chronic Liver Failure-Consortium Acute-on-Chronic Liver Failure (CLIF-C ACLF)</t>
+          <t>Direct Economic Cost-Medical consumables</t>
         </is>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CRIB-II</t>
+          <t>Cost, nursing services</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>clinical risk index for babies scoring system (CRIB II) - during admission</t>
+          <t>Direct Economic Cost-General medical services (nursing care)</t>
         </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>Cost, other</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Disseminated intravascular coagulation (DIC) score</t>
+          <t>Direct Economic Cost-Others</t>
         </is>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MELD</t>
+          <t>Cost, oxygen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Model for end-stage liver diseases (MELD) at onset of BSI</t>
+          <t>Total direct medical expenses while in hospital, $US - Oxygen</t>
         </is>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MELD-Na</t>
+          <t>Cost, procedures</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Model of End-Stage Liver Disease-Na</t>
+          <t>Direct medical expenses after BSI onset, $US - Blood transfusion</t>
         </is>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>McCabe</t>
+          <t>Cost, rehabilitation</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Background parameters - McCabe score at admission</t>
+          <t>Direct Economic Cost- Rehabilitation</t>
         </is>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pneumonia severity index</t>
+          <t>Cost, subsidies</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Assessment models - PSI (pneumonia severity index)</t>
+          <t>subsidies cost, SGD</t>
         </is>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Severity grade</t>
+          <t>Cost, surgery</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Severity grade</t>
+          <t>Total hospital costs ($) - Surgical procedure</t>
         </is>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clinical severity score</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TBSA</t>
+          <t>Cost, traditional medicine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Percent of TBSA (Total Body Surface Area)</t>
+          <t>Direct Economic Cost-Traditional Chinese medicines</t>
         </is>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Clinical signs</t>
+          <t>Economic/resources use</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>Cost, treatment and surgery</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Peak temperature on d3 after antimicrobial treatment (Â°C), Temperature (Â°C)</t>
+          <t>Direct Economic Cost-Treatment and surgery</t>
         </is>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Clinical signs</t>
+          <t>Healthcare exposure</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Blood pressure diastolic, value</t>
+          <t>Prior hospitalization</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>diastolic blood pressure (DBP) (mmHg)</t>
+          <t>Admission days prior to index culture, Admission days till bacteraemia, Background parameters - LOS in preceding yr (days), Clinical data before identification of causative pathogen in blood culture - Length hospital stay, days, Days from admission to positive culture, Days from hospital admission to BSI, Days of admission before infection, Days of hospital stay, Duration before bacteremia, days, Duration of hospitalization before bacteremia (days), Healthcare-associated factors - length of hospital stay in previous 14 days (days), Healthcare-associated factors - Length of hospital stay in previous 84 days before CRKP mBSI (days), Hospital days before bacteremia, Hospital days to bacteraemia, Hospital stay - Days from chemotherapy to GNB bacteremia, Hospital stay - Hospital days to GNB bacteremia, Hospital stay (days), Hospital stay â‰¥ 30 days prior to BSI, days, Hospital stay before bacteremia (days), Hospital stay before BSI, days, Hospital stay prior to BSI, days, Length hospital stay before infection, days, Length of hospital stay (days) - Admission to bacteremia, Length of hospital stay at onset of bacteremia, Length of hospital stay before onset of infection (days), Length of hospital stay before positive specimen collection (days), Length of hospital stay in previous 28 days before CRKP mBSI (days), Length of prior hospital stay (days), Length of stay before bacteremia, Length of stay before bacteremia (days), Length of stay before bacteremia onset (days), Length of stay before BSI (days), Length of stay before BSI onset, length of stay prior to bacteraemia (days), Length of stay prior to bacteraemia, days, LOS hospital length of stay (LOS) - LOS before the bacteremia, LOS prior to isolation of GNB, days, Median (range) duration of hospitalization prior to having bacteremia; days, no. of days of hospital residency prior to culture, Number of hospitalization days in the 3 months before bacteremia, Number of previous hospitalizations, Only patients who had hospital-acquired bacteremia - time to bacteremia from admission date, Outcome - Time from admission to BSI, Overall - Hospital days before bacteremia, Related to hospitalization - Time at risk, days, Time at risk, days, Time between admission and index culture days - Mean (SD), Time between admission and index culture days - Median (Q1-Q3), Time between hospital admission and BSI onset (days), time from hospitalisation to KPBSI (days), Total inpatient days in past 5 years, Total length of stay in hospital before infection, days</t>
         </is>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Clinical signs</t>
+          <t>Healthcare exposure</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Blood pressure systolic, value</t>
+          <t>Prior ICU stay</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>systolic blood pressure (SBP) (mmHg)</t>
+          <t>Before BSI (within 30 days) ICU stay days, Clinical data before identification of causative pathogen in blood culture - ICU stay, days, Days of medical/surgical intensive care unit (MSICU)/coronary care unit (CCU) stay, ICU LOS, days - Mean (SD), Length of ICU stay at onset of bacteraemia, Length of stay in ICU before positive hemoculture (days)</t>
         </is>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Comorbidities</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comorbidities, score</t>
+          <t>Central venous/intravascular access &amp; dialysis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Baseline CCI (Charlson Comorbidity Index) Score - Mean (SD), Baseline CCI (Charlson Comorbidity Index) Score - Median (Q1-Q3), Charlson comorbidity index, Charlson Comorbidity Index (CCI) Score, Charlson comorbidity index at time of admission, Charlson comorbidity score, Charlson Cormorbidity Index, Charlson index (at admission), Charlson score, Comorbidities - charlson comorbidity score, Weighted Charlson Score</t>
+          <t>Arterial catheter (AC) - Overall duration of AC, Duration of central vascular line (days), Duration of central venous device (days), Duration of umbilical artery catheter use (days), intravenous (IV) duration</t>
         </is>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Comorbidities</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comorbidities, nb</t>
+          <t>Airway/respiratory procedures</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Background parameters - Overall no. of comorbidities</t>
+          <t>Length of mechanical ventilation at onset of bacteraemia, Mechanical ventilation duration (days)</t>
         </is>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Gastrointestinal/biliary tubes &amp; abdominal drains</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Age, Age (months), Age (years), Age (yr), Age (yrs), Age at onset of LOS (days), Age, years, Demographic and medical comorbidity - Age, years, Demographics - Age, years</t>
+          <t>Clinical data before identification of causative pathogen in blood culture - Carrier of feeding tube, Total parenteral nutrition duration before onset of sepsis (days)</t>
         </is>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Invasive devices, unspecified</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Catheter - total number, Total numbers of invasive procedures</t>
         </is>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>Blood transfusion</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Direct cost (USD), Direct cost per case (Canadian dollars), Direct cost per case (Canadian dollars) - Site 1, Economic burden ($) - total cost, Healthcare costs (10,000 CNY), Hospitalization-associated Costs - total cost (Euro), Overall cost (IND/USD), Propensity scoreâ€“ adjusted total costs - septicemia - hospitalizations with no in-hospital mortality (those with LOS &lt; 10 days) (one year 2014), Total cost (USD), Total costs (AU dollar), Total direct economic burden, Total direct medical expenses while in hospital, $US, Total hospitalisation cost, SGD</t>
+          <t>Blood transfusion</t>
         </is>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Invasive procedures/devices</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>antimicrobials</t>
+          <t>Urinary catheters/urinary procedures</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Antibiotic cost (IND/USD), Antibiotics cost USD, Direct Economic Cost-Antimicrobial, Direct Economic Cost-Proportion of antimicrobials (%), Hospitalization-associated Costs - Antibiotic cost (Euro), Total antibiotic costs while in hospital, $US</t>
+          <t>Encounter-specific risk factors (prior to development of bacteraemia) - Urinary catheter, days</t>
         </is>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Microbiological indicators</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hospitalization</t>
+          <t>Appropriate antibiotic choice</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hospitalisation cost, JPY, Hospitalisation cost, USD, Inpatient cost, USD</t>
+          <t>Clinical course and outcomes - Time to appropriate treatment in days, Days to appropriate therapy, Days to definitive antibiotic initiation, Hours to active antibiotic therapy, Median (range) duration from bacteremia to receiving appropriate antibiotic; days (n=33), no. of days to active therapy, Outcome parameters - Hours to appropriate therapy, Overall time to first dose of appropriate antibiotic therapy (days), Time to adequate antibiotic therapy, Time to adequate antibiotic therapy ,hours, Time to appropriate antibiotic administration after Gram positive cocci (GPC) (enterococci) bacteremia diagnosis, Time to appropriate antibiotic therapy (min), Time to appropriate therapy, hours, Time to microbiologically appropriate antibiotic therapy (hours)</t>
         </is>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Neonatal risk</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>Neonatal risk, Score</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Economic burden ($) - medical expenses, Medical expenses, Renminbi (RMB)</t>
+          <t>Apgar score in the 5th minute, Apgar score in the first minute, Neonatal Therapeutic Intervention Scoring System (NTISS) score at most severe day of bacteremia</t>
         </is>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Neonatal risk</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>medication</t>
+          <t>birthweight</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Direct Economic Cost-Medicine, Total direct medical expenses while in hospital, $US - Medicine, Total pharmacy cost (IND/USD)</t>
+          <t>Birthweight (g)</t>
         </is>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Neonatal risk</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>diagnosis/labs</t>
+          <t>gestational age</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Direct Economic Cost-Diagnosis and laboratory tests, Total direct medical expenses while in hospital, $US - Laboratory and imaging examinations</t>
+          <t>Gestation (weeks), Gestational age (weeks)</t>
         </is>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Neonatal risk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>loss of productivity</t>
+          <t>Feeding type</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Economic burden ($) - loss of productivity</t>
+          <t>Time to start enteral feeds (days)</t>
         </is>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Blood transfusion</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Total direct medical expenses while in hospital, $US - Blood transfusion</t>
+          <t>Number of sets of positive blood cultures, Sequential time to positivity, Time to positivity ratio</t>
         </is>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>consumables</t>
+          <t>Current hospitalisation duration</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Direct Economic Cost-Medical consumables</t>
+          <t>Clinical outcome - Length of hospitalization, day, Clinical outcomes - LOS from culture to discharge, days hospitalization, Days to discharge, duration of hospitalization (days), Hospital days, hospital days among patients who did not receive effective empirical antibiotic treatment, Hospital length of stay, Hospital stay, Hospital stay (days), Hospital stay after bacteremia, Hospital stay after diagnosis, Hospital stay, days, Index hospital stay (days), Infection-associated LOS, days - Mean (SD), Infection-associated LOS, days - Median (Q1-Q3), Length of hospital stay - days, Length of hospital stay (days), Length of hospital stay (days), among survivors, Length of hospital stay after bacteraemia, Length of hospital stay, days, Length of hospital stay, total days, Length of hospitalization (days), Length of hospitalization, day, length of hospitalization, days, length of stay (days), Length of stay (days), Length of stay (days) - After onset of bacteremia, Length of stay (LOS), days, Length of stay after bacteremia (days), Length of stay after onset of A. baumannii bacteremia, days, Length of stay in days, Length of stay total (days), Length of stay, days, Length of Stay, days, LOS after bacteremia, LOS after BSI, days, LOS after GNB bacteremia, days, LOS hospital length of stay (LOS) - Total LOS, no. of days of hospital stay postinfection for survivors, Outcome - hospital stay, days, Overall admission, days, Overall LOS, days - Mean (SD), Overall LOS, days - Median (Q1-Q3), Post culture length of stay, Post Infection length of stay, Post Infection LOS (&gt;30 day survivors), Severity at clinical presentation and outcomes - Length of stay (days), Total hospital stay, days, Total length of hospital stay (days), Total length of hospital stay, days, Total LOS, Total LOS, days</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E52">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nursing services</t>
+          <t>BSI clearance</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Direct Economic Cost-General medical services (nursing care)</t>
+          <t>Days of positive blood culture, Duration of bacteremia, Duration of bacteremia (days), Duration of Bacteremia, days, Duration of infection (days), time to first negative blood culture, time to resolution of BSI - days (first of the 2 consecutively negative blood cultures after infection) - Pediatric patients</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>other costs, unspecified</t>
+          <t>Current ICU stay</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Direct Economic Cost-Others</t>
+          <t>ICU Length of stay (days), ICU Length of stay, days, Infection-associated ICU LOS - Mean (SD), Length of ICU stay - days, length of stay in ICU - days, NICU stay (days), PICU days, Total duration of ICU stay</t>
         </is>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>oxygen</t>
+          <t>Survival</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Total direct medical expenses while in hospital, $US - Oxygen</t>
+          <t>days to death after admission, Outcome - alive (days), survival days, Survival time, Survival time up to March 1, 2013 (months)</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>Readmission</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Direct medical expenses after BSI onset, $US - Blood transfusion</t>
+          <t>Days between discharge from index hospitalisation to readmission in patients who were alive when they were discharged from home - Mean (SD), Days between discharge from index hospitalisation to readmission in patients who were alive when they were discharged from home - Median (Q1-Q3), Days since last hospitalization</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>rehabilitation</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Direct Economic Cost- Rehabilitation</t>
+          <t>Duration of Fever after Hospital Admission, days</t>
         </is>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>subsidies</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>subsidies cost, SGD</t>
+          <t>Duration of Follow-Up, patient days</t>
         </is>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Economic/resources use</t>
+          <t>Patient outcomes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>reccurence</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Total hospital costs ($) - Surgical procedure</t>
+          <t>Duration to next E. coli BSI</t>
         </is>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Economic/resources use</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>traditional medicine</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Direct Economic Cost-Traditional Chinese medicines</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Economic/resources use</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>treatment and surgery</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Direct Economic Cost-Treatment and surgery</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Healthcare exposure</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Prior hospitalization, duration</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Admission days prior to index culture, Admission days till bacteraemia, Background parameters - LOS in preceding yr (days), Clinical data before identification of causative pathogen in blood culture - Length hospital stay, days, Days from admission to positive culture, Days from hospital admission to BSI, Days of admission before infection, Days of hospital stay, Duration before bacteremia, days, Duration of hospitalization before bacteremia (days), Healthcare-associated factors - length of hospital stay in previous 14 days (days), Healthcare-associated factors - Length of hospital stay in previous 84 days before CRKP mBSI (days), Hospital days before bacteremia, Hospital days to bacteraemia, Hospital stay - Days from chemotherapy to GNB bacteremia, Hospital stay - Hospital days to GNB bacteremia, Hospital stay (days), Hospital stay â‰¥ 30 days prior to BSI, days, Hospital stay before bacteremia (days), Hospital stay before BSI, days, Hospital stay prior to BSI, days, Hospital stay, days, Length hospital stay before infection, days, Length of hospital stay (days) - Admission to bacteremia, Length of hospital stay at onset of bacteremia, Length of hospital stay before onset of infection (days), Length of hospital stay before positive specimen collection (days), Length of hospital stay in previous 28 days before CRKP mBSI (days), Length of prior hospital stay (days), Length of stay before bacteremia, Length of stay before bacteremia (days), Length of stay before bacteremia onset (days), Length of stay before BSI (days), Length of stay before BSI onset, length of stay prior to bacteraemia (days), Length of stay prior to bacteraemia, days, LOS hospital length of stay (LOS) - LOS before the bacteremia, LOS prior to isolation of GNB, days, Median (range) duration of hospitalization prior to having bacteremia; days, no. of days of hospital residency prior to culture, Number of hospitalization days in the 3 months before bacteremia, Only patients who had hospital-acquired bacteremia - time to bacteremia from admission date, Outcome - Time from admission to BSI, Overall - Hospital days before bacteremia, Related to hospitalization - Time at risk, days, Time at risk, days, Time between admission and index culture days - Mean (SD), Time between admission and index culture days - Median (Q1-Q3), Time between hospital admission and BSI onset (days), time from hospitalisation to KPBSI (days), Total inpatient days in past 5 years, Total length of stay in hospital before infection, days</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>56</v>
-      </c>
-      <c r="E62">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Healthcare exposure</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Prior ICU stay, duration</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Before BSI (within 30 days) ICU stay days, Clinical data before identification of causative pathogen in blood culture - ICU stay, days, Days of medical/surgical intensive care unit (MSICU)/coronary care unit (CCU) stay, ICU LOS, days - Mean (SD), Length of ICU stay at onset of bacteraemia, Length of stay in ICU before positive hemoculture (days)</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Healthcare exposure</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Prior hospitalization, nb</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Number of previous hospitalizations</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Healthcare exposure or patient outcome</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Prior or current hospitalization-duration, non specific</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>days hospitalization, duration of hospitalization (days), Hospital days, Hospital length of stay, Hospital stay, Hospital stay (days), Hospital stay, days, Length of hospital stay - days, Length of hospital stay (days), Length of hospital stay, days, Length of hospital stay, total days, Length of hospitalization, day, length of hospitalization, days, length of stay (days), Length of stay (days), Length of stay in days, Length of stay total (days), Length of stay, days, Length of Stay, days, LOS hospital length of stay (LOS) - Total LOS, Overall admission, days, Total hospital stay, days, Total length of hospital stay (days), Total length of hospital stay, days, Total LOS, days</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>38</v>
-      </c>
-      <c r="E65">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Healthcare exposure or patient outcome</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Prior or current ICU stay-duration, non specific</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>ICU Length of stay (days), ICU Length of stay, days, Length of ICU stay - days, length of stay in ICU - days, PICU days, Total duration of ICU stay</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Airway/respiratory procedures, duration</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Length of mechanical ventilation at onset of bacteraemia, Mechanical ventilation duration (days)</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Central venous access/dialysis, duration</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Duration of central vascular line (days), Duration of central venous device (days)</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Blood transfusion, duration</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Blood transfusion</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Central venous access/dialysis, nb</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Catheter - total number</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Feeding tube, nb</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Clinical data before identification of causative pathogen in blood culture - Carrier of feeding tube</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Feeding tube, time to start</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Time to start enteral feeds (days)</t>
-        </is>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Gastrointestinal/urinary tubes or drains, duration</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Encounter-specific risk factors (prior to development of bacteraemia) - Urinary catheter, days</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>IV therapy, duration</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>intravenous (IV) duration</t>
-        </is>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Parental nutrition, duration</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Total parenteral nutrition duration before onset of sepsis (days)</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Procedure-duration, non specific</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Arterial catheter (AC) - Overall duration of AC</t>
-        </is>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>umbilical catheter, duration</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Duration of umbilical artery catheter use (days)</t>
-        </is>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Invasive procedures</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>unspecified - nb</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Total numbers of invasive procedures</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Microbiological resutls</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Appropriate antibiotic choice , time-to</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Clinical course and outcomes - Time to appropriate treatment in days, Days to appropriate therapy, Days to definitive antibiotic initiation, Hours to active antibiotic therapy, Median (range) duration from bacteremia to receiving appropriate antibiotic; days (n=33), no. of days to active therapy, Outcome parameters - Hours to appropriate therapy, Overall time to first dose of appropriate antibiotic therapy (days), Time to adequate antibiotic therapy, Time to adequate antibiotic therapy ,hours, Time to appropriate antibiotic administration after Gram positive cocci (GPC) (enterococci) bacteremia diagnosis, Time to appropriate antibiotic therapy (min), Time to appropriate therapy, hours, Time to microbiologically appropriate antibiotic therapy (hours)</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>16</v>
-      </c>
-      <c r="E79">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Microbiological resutls</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>time to positivity</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Sequential time to positivity, Time to positivity ratio</t>
-        </is>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Microbiological resutls</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Positive blood cultures, nb</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Number of sets of positive blood cultures</t>
-        </is>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>birthweight</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Birthweight (g)</t>
-        </is>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>gestational age</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Gestation (weeks), Gestational age (weeks)</t>
-        </is>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Agpar score, 1st-min</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Apgar score in the first minute</t>
-        </is>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Agpar score, 5th-min</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Apgar score in the 5th minute</t>
-        </is>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>NTISS</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Neonatal Therapeutic Intervention Scoring System (NTISS) score at most severe day of bacteremia</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Neonatal risk</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>weight-for-age-z-score</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>weight-for-age z-score</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Current hospitalisation, duration</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Clinical outcome - Length of hospitalization, day, Clinical outcomes - LOS from culture to discharge, Days to discharge, hospital days among patients who did not receive effective empirical antibiotic treatment, Hospital stay after bacteremia, Hospital stay after diagnosis, Index hospital stay (days), Infection-associated LOS, days - Mean (SD), Infection-associated LOS, days - Median (Q1-Q3), Length of hospital stay - days, Length of hospital stay (days), Length of hospital stay (days), among survivors, Length of hospital stay after bacteraemia, Length of hospitalization (days), Length of stay (days) - After onset of bacteremia, Length of stay (LOS), days, Length of stay after bacteremia (days), Length of stay after onset of A. baumannii bacteremia, days, Length of stay, days, LOS after bacteremia, LOS after BSI, days, LOS after GNB bacteremia, days, no. of days of hospital stay postinfection for survivors, Outcome - hospital stay, days, Overall LOS, days - Mean (SD), Overall LOS, days - Median (Q1-Q3), Post culture length of stay, Post Infection length of stay, Post Infection LOS (&gt;30 day survivors), Severity at clinical presentation and outcomes - Length of stay (days), Total length of hospital stay (days), Total LOS</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>35</v>
-      </c>
-      <c r="E88">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Microbiological, bacteremia duration</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Days of positive blood culture, Duration of bacteremia, Duration of bacteremia (days), Duration of Bacteremia, days, Duration of infection (days), time to first negative blood culture, time to resolution of BSI - days (first of the 2 consecutively negative blood cultures after infection) - Pediatric patients</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Patient outcomes, time alive</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>days to death after admission, Outcome - alive (days), survival days, Survival time, Survival time up to March 1, 2013 (months)</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Clinical reccurence/reinfection, time-to</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Days between discharge from index hospitalisation to readmission in patients who were alive when they were discharged from home - Mean (SD), Days between discharge from index hospitalisation to readmission in patients who were alive when they were discharged from home - Median (Q1-Q3), Days since last hospitalization</t>
-        </is>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Current ICU stay, duration</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Infection-associated ICU LOS - Mean (SD), NICU stay (days)</t>
-        </is>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Fever, duration</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Duration of Fever after Hospital Admission, days</t>
-        </is>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Follow-up, duration</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Duration of Follow-Up, patient days</t>
-        </is>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Patient outcomes</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Microbiological reccurence/reinfection, duration</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Duration to next E. coli BSI</t>
-        </is>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
